--- a/examples.xlsx
+++ b/examples.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77727D27-AE27-4A60-8610-BAC8CD710053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,11 +536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>-1</v>
       </c>
       <c r="D2" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>-1</v>
@@ -605,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -623,10 +624,10 @@
         <v>-1</v>
       </c>
       <c r="H3" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I3" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -634,19 +635,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -663,22 +664,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
         <v>-1</v>
       </c>
       <c r="D5" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>-1</v>
       </c>
       <c r="F5" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
@@ -692,22 +693,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>-1</v>
       </c>
       <c r="D6" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>-1</v>
       </c>
       <c r="F6" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -721,13 +722,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -750,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -762,16 +763,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5">
         <v>-1</v>
       </c>
       <c r="H8" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I8" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -785,7 +786,7 @@
         <v>-1</v>
       </c>
       <c r="D9" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E9" s="8">
         <v>-1</v>
@@ -808,16 +809,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>-1</v>
@@ -826,10 +827,10 @@
         <v>-1</v>
       </c>
       <c r="H10" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -881,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -895,16 +896,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5">
         <v>-1</v>
       </c>
       <c r="E13" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5">
         <v>-1</v>
@@ -916,7 +917,7 @@
         <v>-1</v>
       </c>
       <c r="I13" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -924,10 +925,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C14" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -936,13 +937,13 @@
         <v>-1</v>
       </c>
       <c r="F14" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
       </c>
       <c r="H14" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
@@ -953,10 +954,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5">
         <v>-1</v>
@@ -965,10 +966,10 @@
         <v>-1</v>
       </c>
       <c r="F15" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="5">
         <v>-1</v>
@@ -982,16 +983,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
         <v>-1</v>
@@ -1000,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I16" s="6">
         <v>1</v>
@@ -1011,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C17" s="8">
         <v>-1</v>
@@ -1046,22 +1047,22 @@
         <v>-1</v>
       </c>
       <c r="D18" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <v>-1</v>
       </c>
       <c r="F18" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>-1</v>
       </c>
       <c r="H18" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1075,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1087,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I19" s="6">
         <v>-1</v>
@@ -1098,19 +1099,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5">
         <v>-1</v>
       </c>
       <c r="D20" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5">
         <v>-1</v>
       </c>
       <c r="F20" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -1127,19 +1128,19 @@
         <v>3</v>
       </c>
       <c r="B21" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -1156,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
         <v>-1</v>
@@ -1165,16 +1166,16 @@
         <v>-1</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5">
         <v>-1</v>
       </c>
       <c r="H22" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
@@ -1185,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -1197,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H23" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -1226,13 +1227,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5">
         <v>1</v>
       </c>
       <c r="H24" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -1249,7 +1250,7 @@
         <v>-1</v>
       </c>
       <c r="D25" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E25" s="8">
         <v>-1</v>
@@ -1261,7 +1262,7 @@
         <v>-1</v>
       </c>
       <c r="H25" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I25" s="9">
         <v>-1</v>
@@ -1275,25 +1276,25 @@
         <v>-1</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E26" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="2">
         <v>-1</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1322,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1335,7 +1336,7 @@
       <c r="C28" s="5">
         <v>1</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="16">
         <v>1</v>
       </c>
       <c r="E28" s="5">
@@ -1345,13 +1346,13 @@
         <v>-1</v>
       </c>
       <c r="G28" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
       </c>
       <c r="I28" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1377,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="H29" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I29" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1394,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -1403,13 +1404,13 @@
         <v>-1</v>
       </c>
       <c r="G30" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
       </c>
       <c r="I30" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1423,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E31" s="5">
         <v>1</v>
@@ -1435,10 +1436,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I31" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1467,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1510,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1519,13 +1520,13 @@
         <v>-1</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1536,13 +1537,13 @@
         <v>-1</v>
       </c>
       <c r="C35" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D35" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F35" s="5">
         <v>-1</v>
@@ -1551,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="H35" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I35" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1577,13 +1578,13 @@
         <v>-1</v>
       </c>
       <c r="G36" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
       </c>
       <c r="I36" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1597,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -1609,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="H37" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I37" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1641,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1655,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -1667,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="H39" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I39" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1699,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1716,7 +1717,7 @@
         <v>-1</v>
       </c>
       <c r="E41" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F41" s="8">
         <v>-1</v>
@@ -1733,7 +1734,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:I41">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1741,7 +1742,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1753,8 +1754,8 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF851BB5"/>
-        <color rgb="FFC6F8A4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
